--- a/Delos/RadniNalog.xlsx
+++ b/Delos/RadniNalog.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9560FA3-B2E7-44F2-BB91-936F8024C011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7086DF4-91EA-40EC-A699-DBD14B1AB18E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="2355" windowWidth="18000" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 (6)" sheetId="7" r:id="rId1"/>
@@ -578,6 +578,90 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -602,6 +686,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -634,93 +721,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1109,8 +1109,8 @@
   </sheetPr>
   <dimension ref="A3:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:H27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,80 +1127,80 @@
       <c r="A9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="40" t="s">
+      <c r="B10" s="65"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="27"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="55"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26" t="s">
+      <c r="B16" s="55"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -1210,44 +1210,44 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="24" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="24" t="s">
+      <c r="E18" s="53"/>
+      <c r="F18" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="25"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45" t="s">
+      <c r="E19" s="45"/>
+      <c r="F19" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="46"/>
+      <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="15" t="s">
         <v>14</v>
       </c>
@@ -1257,85 +1257,85 @@
       <c r="E21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="65"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="68"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="68"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="71"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -1344,116 +1344,116 @@
       <c r="B29" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
       <c r="F29" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="53"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
       <c r="F34" s="21"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="60"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="60"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="30"/>
     </row>
     <row r="40" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -1464,60 +1464,78 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="55"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="22"/>
-      <c r="F41" s="56" t="s">
+      <c r="F41" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="56"/>
+      <c r="G41" s="25"/>
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
       <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
     </row>
     <row r="45" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B41:C43"/>
-    <mergeCell ref="F41:G43"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A23:H27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C29:E29"/>
@@ -1534,33 +1552,15 @@
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B41:C43"/>
+    <mergeCell ref="F41:G43"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Delos/RadniNalog.xlsx
+++ b/Delos/RadniNalog.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7086DF4-91EA-40EC-A699-DBD14B1AB18E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CA6D47-00E6-42ED-8E1D-A029F0D96600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="2355" windowWidth="18000" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 (6)" sheetId="7" r:id="rId1"/>
@@ -578,6 +578,123 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -587,9 +704,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -602,125 +716,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1109,8 +1109,8 @@
   </sheetPr>
   <dimension ref="A3:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:H45"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,80 +1127,80 @@
       <c r="A9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="69" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="55"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -1210,44 +1210,44 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="52" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="52" t="s">
+      <c r="E18" s="25"/>
+      <c r="F18" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="53"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46" t="s">
+      <c r="E19" s="43"/>
+      <c r="F19" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="47"/>
+      <c r="G19" s="45"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="15" t="s">
         <v>14</v>
       </c>
@@ -1257,85 +1257,85 @@
       <c r="E21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="58"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -1344,116 +1344,116 @@
       <c r="B29" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
       <c r="F29" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="27"/>
+      <c r="H29" s="61"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
       <c r="F34" s="21"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="68"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="68"/>
     </row>
     <row r="40" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -1464,51 +1464,87 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="24"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="22"/>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="25"/>
+      <c r="G41" s="64"/>
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
       <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
     </row>
     <row r="45" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="B41:C43"/>
+    <mergeCell ref="F41:G43"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A23:H27"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="E16:F16"/>
@@ -1525,42 +1561,6 @@
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:F11"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:H27"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="B41:C43"/>
-    <mergeCell ref="F41:G43"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
